--- a/content/dadesref/entitats/Codis_Territori_Paisos_ISOA2.xlsx
+++ b/content/dadesref/entitats/Codis_Territori_Paisos_ISOA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAYATSAL\Generalitat de Catalunya\Franco Castanys, Llorenç - 2019 - Dades de referència\__C6\01.CATaleg\10.Modelatge_OIAD\03.Paisos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CE35E-2A98-43D2-B945-608DEE242061}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0A0CE35E-2A98-43D2-B945-608DEE242061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{213057F1-0564-426B-925A-997875E8BBE8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
+    <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12720" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Països_ISO_A2" sheetId="1" r:id="rId1"/>
@@ -936,9 +936,6 @@
     <t>MK</t>
   </si>
   <si>
-    <t>Macedònia</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
@@ -2452,6 +2449,9 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>Macedònia del Nord</t>
   </si>
 </sst>
 </file>
@@ -2619,48 +2619,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2712,6 +2670,48 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2785,12 +2785,12 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="26" xr3:uid="{62AA031B-DD73-472A-8ED6-EB4710A68C12}" name="Codi" dataDxfId="6"/>
-    <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{59F9B3B5-2DE7-4FFD-B2F1-169729E28FDA}" name="Codi A3" dataDxfId="0"/>
-    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{EA0E7174-2119-4A3D-B113-5BA253613AE8}" name="Subcontinent Codi" dataDxfId="4"/>
-    <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Subcontinent Nom" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{59F9B3B5-2DE7-4FFD-B2F1-169729E28FDA}" name="Codi A3" dataDxfId="4"/>
+    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EA0E7174-2119-4A3D-B113-5BA253613AE8}" name="Subcontinent Codi" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Subcontinent Nom" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" s="2"/>
@@ -3125,13 +3125,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>1</v>
@@ -3154,16 +3154,16 @@
         <v>211</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>199</v>
@@ -3171,22 +3171,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>509</v>
-      </c>
       <c r="C5" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>29</v>
@@ -3200,16 +3200,16 @@
         <v>283</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>218</v>
@@ -3217,22 +3217,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>314</v>
-      </c>
       <c r="C7" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>29</v>
@@ -3246,16 +3246,16 @@
         <v>108</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>109</v>
@@ -3269,16 +3269,16 @@
         <v>285</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>218</v>
@@ -3292,16 +3292,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>8</v>
@@ -3309,22 +3309,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
         <v>385</v>
       </c>
-      <c r="B11" t="s">
-        <v>386</v>
-      </c>
       <c r="C11" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>174</v>
@@ -3338,16 +3338,16 @@
         <v>177</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>178</v>
@@ -3355,22 +3355,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" t="s">
         <v>387</v>
       </c>
-      <c r="B13" t="s">
-        <v>388</v>
-      </c>
       <c r="C13" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>174</v>
@@ -3378,25 +3378,25 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" t="s">
         <v>431</v>
       </c>
-      <c r="B14" t="s">
-        <v>432</v>
-      </c>
       <c r="C14" s="22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3407,16 +3407,16 @@
         <v>156</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>148</v>
@@ -3430,16 +3430,16 @@
         <v>217</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>218</v>
@@ -3447,22 +3447,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" t="s">
         <v>389</v>
       </c>
-      <c r="B17" t="s">
-        <v>390</v>
-      </c>
       <c r="C17" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>174</v>
@@ -3476,16 +3476,16 @@
         <v>267</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>268</v>
@@ -3493,22 +3493,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" t="s">
         <v>315</v>
       </c>
-      <c r="B19" t="s">
-        <v>316</v>
-      </c>
       <c r="C19" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>29</v>
@@ -3522,16 +3522,16 @@
         <v>279</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>218</v>
@@ -3542,19 +3542,19 @@
         <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>174</v>
@@ -3562,25 +3562,25 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" t="s">
         <v>433</v>
       </c>
-      <c r="B22" t="s">
-        <v>434</v>
-      </c>
       <c r="C22" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -3591,16 +3591,16 @@
         <v>213</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>199</v>
@@ -3608,22 +3608,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" t="s">
         <v>439</v>
       </c>
-      <c r="B24" t="s">
-        <v>440</v>
-      </c>
       <c r="C24" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>174</v>
@@ -3631,22 +3631,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
         <v>329</v>
       </c>
-      <c r="B25" t="s">
-        <v>330</v>
-      </c>
       <c r="C25" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>218</v>
@@ -3654,22 +3654,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" t="s">
         <v>317</v>
       </c>
-      <c r="B26" t="s">
-        <v>318</v>
-      </c>
       <c r="C26" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>29</v>
@@ -3683,16 +3683,16 @@
         <v>119</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>121</v>
@@ -3706,16 +3706,16 @@
         <v>38</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>39</v>
@@ -3729,16 +3729,16 @@
         <v>135</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>136</v>
@@ -3752,16 +3752,16 @@
         <v>215</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>199</v>
@@ -3775,16 +3775,16 @@
         <v>147</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>148</v>
@@ -3792,22 +3792,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" t="s">
         <v>441</v>
       </c>
-      <c r="B32" t="s">
-        <v>442</v>
-      </c>
       <c r="C32" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>174</v>
@@ -3821,16 +3821,16 @@
         <v>287</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>218</v>
@@ -3844,16 +3844,16 @@
         <v>26</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>27</v>
@@ -3867,16 +3867,16 @@
         <v>152</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>148</v>
@@ -3890,16 +3890,16 @@
         <v>237</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>238</v>
@@ -3913,16 +3913,16 @@
         <v>274</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>29</v>
@@ -3936,16 +3936,16 @@
         <v>41</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>39</v>
@@ -3953,22 +3953,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" t="s">
         <v>381</v>
       </c>
-      <c r="B39" t="s">
-        <v>382</v>
-      </c>
       <c r="C39" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>73</v>
@@ -3982,16 +3982,16 @@
         <v>240</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>238</v>
@@ -4005,16 +4005,16 @@
         <v>10</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>8</v>
@@ -4028,16 +4028,16 @@
         <v>145</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>136</v>
@@ -4051,16 +4051,16 @@
         <v>43</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>39</v>
@@ -4074,16 +4074,16 @@
         <v>159</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>148</v>
@@ -4094,19 +4094,19 @@
         <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>73</v>
@@ -4120,16 +4120,16 @@
         <v>12</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>8</v>
@@ -4143,16 +4143,16 @@
         <v>222</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>223</v>
@@ -4166,16 +4166,16 @@
         <v>225</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>223</v>
@@ -4189,16 +4189,16 @@
         <v>45</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>39</v>
@@ -4212,16 +4212,16 @@
         <v>123</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>121</v>
@@ -4235,16 +4235,16 @@
         <v>289</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>29</v>
@@ -4252,22 +4252,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52" t="s">
         <v>371</v>
       </c>
-      <c r="B52" t="s">
-        <v>372</v>
-      </c>
       <c r="C52" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>174</v>
@@ -4275,22 +4275,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B53" t="s">
         <v>443</v>
       </c>
-      <c r="B53" t="s">
-        <v>444</v>
-      </c>
       <c r="C53" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>174</v>
@@ -4298,22 +4298,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" t="s">
         <v>347</v>
       </c>
-      <c r="B54" t="s">
-        <v>348</v>
-      </c>
       <c r="C54" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>29</v>
@@ -4327,16 +4327,16 @@
         <v>75</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>73</v>
@@ -4344,22 +4344,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" t="s">
         <v>445</v>
       </c>
-      <c r="B56" t="s">
-        <v>446</v>
-      </c>
       <c r="C56" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>174</v>
@@ -4367,22 +4367,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B57" t="s">
         <v>414</v>
       </c>
-      <c r="B57" t="s">
-        <v>415</v>
-      </c>
       <c r="C57" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>109</v>
@@ -4396,16 +4396,16 @@
         <v>125</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>121</v>
@@ -4413,25 +4413,25 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -4442,16 +4442,16 @@
         <v>161</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>148</v>
@@ -4465,16 +4465,16 @@
         <v>77</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>73</v>
@@ -4482,22 +4482,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B62" t="s">
         <v>331</v>
       </c>
-      <c r="B62" t="s">
-        <v>332</v>
-      </c>
       <c r="C62" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>29</v>
@@ -4511,16 +4511,16 @@
         <v>291</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>29</v>
@@ -4534,16 +4534,16 @@
         <v>293</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>29</v>
@@ -4554,19 +4554,19 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>136</v>
@@ -4574,22 +4574,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B66" t="s">
         <v>349</v>
       </c>
-      <c r="B66" t="s">
-        <v>350</v>
-      </c>
       <c r="C66" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>29</v>
@@ -4600,19 +4600,19 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>27</v>
@@ -4626,16 +4626,16 @@
         <v>79</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>73</v>
@@ -4643,22 +4643,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B69" t="s">
         <v>351</v>
       </c>
-      <c r="B69" t="s">
-        <v>352</v>
-      </c>
       <c r="C69" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>218</v>
@@ -4666,22 +4666,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" t="s">
         <v>393</v>
       </c>
-      <c r="B70" t="s">
-        <v>394</v>
-      </c>
       <c r="C70" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>264</v>
@@ -4695,16 +4695,16 @@
         <v>242</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>238</v>
@@ -4712,22 +4712,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" t="s">
         <v>353</v>
       </c>
-      <c r="B72" t="s">
-        <v>354</v>
-      </c>
       <c r="C72" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>29</v>
@@ -4735,22 +4735,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" t="s">
         <v>319</v>
       </c>
-      <c r="B73" t="s">
-        <v>320</v>
-      </c>
       <c r="C73" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>29</v>
@@ -4764,16 +4764,16 @@
         <v>14</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>8</v>
@@ -4787,16 +4787,16 @@
         <v>47</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>39</v>
@@ -4810,16 +4810,16 @@
         <v>220</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>218</v>
@@ -4833,16 +4833,16 @@
         <v>49</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>39</v>
@@ -4856,16 +4856,16 @@
         <v>295</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>29</v>
@@ -4879,16 +4879,16 @@
         <v>297</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>29</v>
@@ -4896,22 +4896,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B80" t="s">
         <v>447</v>
       </c>
-      <c r="B80" t="s">
-        <v>448</v>
-      </c>
       <c r="C80" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>174</v>
@@ -4925,16 +4925,16 @@
         <v>139</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>136</v>
@@ -4942,22 +4942,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B82" t="s">
         <v>511</v>
       </c>
-      <c r="B82" t="s">
-        <v>512</v>
-      </c>
       <c r="C82" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>174</v>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" t="s">
         <v>513</v>
       </c>
-      <c r="B83" t="s">
-        <v>514</v>
-      </c>
       <c r="C83" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>148</v>
@@ -4988,25 +4988,25 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B84" t="s">
         <v>401</v>
       </c>
-      <c r="B84" t="s">
-        <v>402</v>
-      </c>
       <c r="C84" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -5017,16 +5017,16 @@
         <v>127</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>121</v>
@@ -5034,22 +5034,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" t="s">
         <v>515</v>
       </c>
-      <c r="B86" t="s">
-        <v>516</v>
-      </c>
       <c r="C86" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>218</v>
@@ -5063,16 +5063,16 @@
         <v>51</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>39</v>
@@ -5086,16 +5086,16 @@
         <v>16</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>8</v>
@@ -5109,16 +5109,16 @@
         <v>53</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>39</v>
@@ -5132,16 +5132,16 @@
         <v>163</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>148</v>
@@ -5149,22 +5149,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" t="s">
         <v>373</v>
       </c>
-      <c r="B91" t="s">
-        <v>374</v>
-      </c>
       <c r="C91" s="22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>174</v>
@@ -5178,16 +5178,16 @@
         <v>129</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>121</v>
@@ -5198,19 +5198,19 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>223</v>
@@ -5218,22 +5218,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" t="s">
         <v>333</v>
       </c>
-      <c r="B94" t="s">
-        <v>334</v>
-      </c>
       <c r="C94" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>29</v>
@@ -5241,25 +5241,25 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B95" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -5270,16 +5270,16 @@
         <v>180</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>178</v>
@@ -5293,16 +5293,16 @@
         <v>244</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>268</v>
@@ -5310,22 +5310,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B98" t="s">
         <v>517</v>
       </c>
-      <c r="B98" t="s">
-        <v>518</v>
-      </c>
       <c r="C98" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>218</v>
@@ -5339,16 +5339,16 @@
         <v>270</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>268</v>
@@ -5356,22 +5356,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B100" t="s">
         <v>375</v>
       </c>
-      <c r="B100" t="s">
-        <v>376</v>
-      </c>
       <c r="C100" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>174</v>
@@ -5382,19 +5382,19 @@
         <v>265</v>
       </c>
       <c r="B101" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>268</v>
@@ -5402,25 +5402,25 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B102" t="s">
         <v>465</v>
       </c>
-      <c r="B102" t="s">
-        <v>466</v>
-      </c>
       <c r="C102" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -5428,19 +5428,19 @@
         <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>148</v>
@@ -5454,16 +5454,16 @@
         <v>182</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>178</v>
@@ -5477,16 +5477,16 @@
         <v>184</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>178</v>
@@ -5494,91 +5494,91 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B106" t="s">
         <v>486</v>
       </c>
-      <c r="B106" t="s">
-        <v>487</v>
-      </c>
       <c r="C106" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B107" t="s">
         <v>404</v>
       </c>
-      <c r="B107" t="s">
-        <v>405</v>
-      </c>
       <c r="C107" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B108" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" t="s">
         <v>395</v>
       </c>
-      <c r="B109" t="s">
-        <v>396</v>
-      </c>
       <c r="C109" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>264</v>
@@ -5592,16 +5592,16 @@
         <v>277</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>174</v>
@@ -5609,22 +5609,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B111" t="s">
         <v>449</v>
       </c>
-      <c r="B111" t="s">
-        <v>450</v>
-      </c>
       <c r="C111" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>174</v>
@@ -5632,22 +5632,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B112" t="s">
         <v>451</v>
       </c>
-      <c r="B112" t="s">
-        <v>452</v>
-      </c>
       <c r="C112" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>174</v>
@@ -5661,16 +5661,16 @@
         <v>198</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>199</v>
@@ -5684,16 +5684,16 @@
         <v>258</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>238</v>
@@ -5707,16 +5707,16 @@
         <v>201</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>199</v>
@@ -5724,45 +5724,45 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B116" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B117" t="s">
         <v>355</v>
       </c>
-      <c r="B117" t="s">
-        <v>356</v>
-      </c>
       <c r="C117" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>29</v>
@@ -5770,22 +5770,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" t="s">
         <v>357</v>
       </c>
-      <c r="B118" t="s">
-        <v>358</v>
-      </c>
       <c r="C118" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>218</v>
@@ -5793,25 +5793,25 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B119" t="s">
         <v>418</v>
       </c>
-      <c r="B119" t="s">
-        <v>419</v>
-      </c>
       <c r="C119" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -5822,16 +5822,16 @@
         <v>299</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>29</v>
@@ -5839,22 +5839,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B121" t="s">
         <v>377</v>
       </c>
-      <c r="B121" t="s">
-        <v>378</v>
-      </c>
       <c r="C121" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>174</v>
@@ -5868,16 +5868,16 @@
         <v>228</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>223</v>
@@ -5885,22 +5885,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B123" t="s">
         <v>519</v>
       </c>
-      <c r="B123" t="s">
-        <v>520</v>
-      </c>
       <c r="C123" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>218</v>
@@ -5908,25 +5908,25 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B124" t="s">
         <v>420</v>
       </c>
-      <c r="B124" t="s">
-        <v>421</v>
-      </c>
       <c r="C124" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -5937,16 +5937,16 @@
         <v>186</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>188</v>
@@ -5960,16 +5960,16 @@
         <v>81</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>73</v>
@@ -5983,16 +5983,16 @@
         <v>190</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>188</v>
@@ -6000,48 +6000,48 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B128" t="s">
         <v>407</v>
       </c>
-      <c r="B128" t="s">
-        <v>408</v>
-      </c>
       <c r="C128" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B129" t="s">
         <v>422</v>
       </c>
-      <c r="B129" t="s">
-        <v>423</v>
-      </c>
       <c r="C129" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -6052,16 +6052,16 @@
         <v>246</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>238</v>
@@ -6075,16 +6075,16 @@
         <v>31</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>27</v>
@@ -6092,22 +6092,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" t="s">
         <v>359</v>
       </c>
-      <c r="B132" t="s">
-        <v>360</v>
-      </c>
       <c r="C132" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>29</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B133" t="s">
         <v>424</v>
       </c>
-      <c r="B133" t="s">
-        <v>425</v>
-      </c>
       <c r="C133" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -6144,16 +6144,16 @@
         <v>55</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>39</v>
@@ -6167,16 +6167,16 @@
         <v>111</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>109</v>
@@ -6184,22 +6184,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" t="s">
         <v>321</v>
       </c>
-      <c r="B136" t="s">
-        <v>322</v>
-      </c>
       <c r="C136" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>218</v>
@@ -6207,22 +6207,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B137" t="s">
         <v>361</v>
       </c>
-      <c r="B137" t="s">
-        <v>362</v>
-      </c>
       <c r="C137" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>29</v>
@@ -6230,22 +6230,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" t="s">
         <v>323</v>
       </c>
-      <c r="B138" t="s">
-        <v>324</v>
-      </c>
       <c r="C138" s="22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>29</v>
@@ -6256,19 +6256,19 @@
         <v>229</v>
       </c>
       <c r="B139" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>223</v>
@@ -6279,19 +6279,19 @@
         <v>300</v>
       </c>
       <c r="B140" t="s">
-        <v>301</v>
+        <v>806</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>218</v>
@@ -6305,16 +6305,16 @@
         <v>83</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>73</v>
@@ -6328,16 +6328,16 @@
         <v>248</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>238</v>
@@ -6351,16 +6351,16 @@
         <v>85</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>73</v>
@@ -6374,16 +6374,16 @@
         <v>203</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>199</v>
@@ -6397,16 +6397,16 @@
         <v>57</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>39</v>
@@ -6414,22 +6414,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B146" t="s">
         <v>302</v>
       </c>
-      <c r="B146" t="s">
-        <v>303</v>
-      </c>
       <c r="C146" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>29</v>
@@ -6440,19 +6440,19 @@
         <v>112</v>
       </c>
       <c r="B147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>109</v>
@@ -6460,22 +6460,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B148" t="s">
         <v>521</v>
       </c>
-      <c r="B148" t="s">
-        <v>522</v>
-      </c>
       <c r="C148" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>174</v>
@@ -6489,16 +6489,16 @@
         <v>87</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>73</v>
@@ -6512,16 +6512,16 @@
         <v>59</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>39</v>
@@ -6535,16 +6535,16 @@
         <v>89</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>29</v>
@@ -6558,16 +6558,16 @@
         <v>141</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>121</v>
@@ -6575,25 +6575,25 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B153" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -6604,16 +6604,16 @@
         <v>91</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>73</v>
@@ -6621,22 +6621,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" t="s">
         <v>335</v>
       </c>
-      <c r="B155" t="s">
-        <v>336</v>
-      </c>
       <c r="C155" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>218</v>
@@ -6644,22 +6644,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B156" t="s">
         <v>523</v>
       </c>
-      <c r="B156" t="s">
-        <v>524</v>
-      </c>
       <c r="C156" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>218</v>
@@ -6673,16 +6673,16 @@
         <v>231</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>223</v>
@@ -6690,22 +6690,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B158" t="s">
         <v>304</v>
       </c>
-      <c r="B158" t="s">
-        <v>305</v>
-      </c>
       <c r="C158" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>218</v>
@@ -6713,22 +6713,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B159" t="s">
         <v>453</v>
       </c>
-      <c r="B159" t="s">
-        <v>454</v>
-      </c>
       <c r="C159" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>174</v>
@@ -6742,16 +6742,16 @@
         <v>250</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>238</v>
@@ -6765,16 +6765,16 @@
         <v>33</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>27</v>
@@ -6782,25 +6782,25 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B162" t="s">
         <v>410</v>
       </c>
-      <c r="B162" t="s">
-        <v>411</v>
-      </c>
       <c r="C162" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -6811,16 +6811,16 @@
         <v>205</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>199</v>
@@ -6834,16 +6834,16 @@
         <v>131</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>121</v>
@@ -6857,16 +6857,16 @@
         <v>61</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>39</v>
@@ -6880,16 +6880,16 @@
         <v>63</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>39</v>
@@ -6897,45 +6897,45 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B167" t="s">
         <v>468</v>
       </c>
-      <c r="B167" t="s">
-        <v>469</v>
-      </c>
       <c r="C167" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B168" t="s">
         <v>363</v>
       </c>
-      <c r="B168" t="s">
-        <v>364</v>
-      </c>
       <c r="C168" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>218</v>
@@ -6943,22 +6943,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B169" t="s">
         <v>397</v>
       </c>
-      <c r="B169" t="s">
-        <v>398</v>
-      </c>
       <c r="C169" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>264</v>
@@ -6972,16 +6972,16 @@
         <v>272</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>268</v>
@@ -6989,45 +6989,45 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B171" t="s">
         <v>426</v>
       </c>
-      <c r="B171" t="s">
-        <v>427</v>
-      </c>
       <c r="C171" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" t="s">
         <v>325</v>
       </c>
-      <c r="B172" t="s">
-        <v>326</v>
-      </c>
       <c r="C172" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>29</v>
@@ -7041,16 +7041,16 @@
         <v>207</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>199</v>
@@ -7058,48 +7058,48 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B174" t="s">
         <v>412</v>
       </c>
-      <c r="B174" t="s">
-        <v>413</v>
-      </c>
       <c r="C174" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B175" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -7110,16 +7110,16 @@
         <v>133</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>121</v>
@@ -7133,16 +7133,16 @@
         <v>262</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>264</v>
@@ -7156,16 +7156,16 @@
         <v>150</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>148</v>
@@ -7179,16 +7179,16 @@
         <v>167</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>148</v>
@@ -7196,68 +7196,68 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B180" t="s">
         <v>470</v>
       </c>
-      <c r="B180" t="s">
-        <v>471</v>
-      </c>
       <c r="C180" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B181" t="s">
         <v>472</v>
       </c>
-      <c r="B181" t="s">
-        <v>473</v>
-      </c>
       <c r="C181" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B182" t="s">
         <v>337</v>
       </c>
-      <c r="B182" t="s">
-        <v>338</v>
-      </c>
       <c r="C182" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>29</v>
@@ -7265,22 +7265,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B183" t="s">
         <v>306</v>
       </c>
-      <c r="B183" t="s">
-        <v>307</v>
-      </c>
       <c r="C183" s="22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>29</v>
@@ -7288,22 +7288,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B184" t="s">
         <v>526</v>
       </c>
-      <c r="B184" t="s">
-        <v>527</v>
-      </c>
       <c r="C184" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>174</v>
@@ -7311,45 +7311,45 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B185" t="s">
         <v>437</v>
       </c>
-      <c r="B185" t="s">
-        <v>438</v>
-      </c>
       <c r="C185" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" t="s">
         <v>365</v>
       </c>
-      <c r="B186" t="s">
-        <v>366</v>
-      </c>
       <c r="C186" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>29</v>
@@ -7363,16 +7363,16 @@
         <v>18</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>8</v>
@@ -7386,16 +7386,16 @@
         <v>20</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>8</v>
@@ -7403,22 +7403,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B189" t="s">
         <v>379</v>
       </c>
-      <c r="B189" t="s">
-        <v>380</v>
-      </c>
       <c r="C189" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>174</v>
@@ -7426,22 +7426,22 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B190" t="s">
         <v>528</v>
       </c>
-      <c r="B190" t="s">
-        <v>529</v>
-      </c>
       <c r="C190" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>73</v>
@@ -7449,22 +7449,22 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B191" t="s">
         <v>339</v>
       </c>
-      <c r="B191" t="s">
-        <v>340</v>
-      </c>
       <c r="C191" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>29</v>
@@ -7472,22 +7472,22 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
         <v>383</v>
       </c>
-      <c r="B192" t="s">
-        <v>384</v>
-      </c>
       <c r="C192" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>73</v>
@@ -7495,22 +7495,22 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" t="s">
         <v>345</v>
       </c>
-      <c r="B193" t="s">
-        <v>346</v>
-      </c>
       <c r="C193" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>218</v>
@@ -7524,16 +7524,16 @@
         <v>114</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>109</v>
@@ -7547,16 +7547,16 @@
         <v>65</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>39</v>
@@ -7564,22 +7564,22 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B196" t="s">
         <v>455</v>
       </c>
-      <c r="B196" t="s">
-        <v>456</v>
-      </c>
       <c r="C196" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>174</v>
@@ -7587,22 +7587,22 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B197" t="s">
         <v>457</v>
       </c>
-      <c r="B197" t="s">
-        <v>458</v>
-      </c>
       <c r="C197" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>174</v>
@@ -7610,22 +7610,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B198" t="s">
         <v>459</v>
       </c>
-      <c r="B198" t="s">
-        <v>460</v>
-      </c>
       <c r="C198" s="22" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>174</v>
@@ -7633,22 +7633,22 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B199" t="s">
         <v>461</v>
       </c>
-      <c r="B199" t="s">
-        <v>462</v>
-      </c>
       <c r="C199" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>174</v>
@@ -7656,22 +7656,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B200" t="s">
         <v>530</v>
       </c>
-      <c r="B200" t="s">
-        <v>531</v>
-      </c>
       <c r="C200" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>174</v>
@@ -7685,16 +7685,16 @@
         <v>143</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>136</v>
@@ -7702,68 +7702,68 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B202" t="s">
         <v>474</v>
       </c>
-      <c r="B202" t="s">
-        <v>475</v>
-      </c>
       <c r="C202" s="22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B203" t="s">
         <v>476</v>
       </c>
-      <c r="B203" t="s">
-        <v>477</v>
-      </c>
       <c r="C203" s="22" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B204" t="s">
         <v>308</v>
       </c>
-      <c r="B204" t="s">
-        <v>309</v>
-      </c>
       <c r="C204" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>218</v>
@@ -7771,22 +7771,22 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B205" t="s">
         <v>310</v>
       </c>
-      <c r="B205" t="s">
-        <v>311</v>
-      </c>
       <c r="C205" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>218</v>
@@ -7800,16 +7800,16 @@
         <v>22</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>8</v>
@@ -7823,16 +7823,16 @@
         <v>67</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>39</v>
@@ -7840,22 +7840,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B208" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>218</v>
@@ -7869,16 +7869,16 @@
         <v>93</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>73</v>
@@ -7892,16 +7892,16 @@
         <v>69</v>
       </c>
       <c r="C210" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>39</v>
@@ -7915,16 +7915,16 @@
         <v>252</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>238</v>
@@ -7932,22 +7932,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B212" t="s">
         <v>463</v>
       </c>
-      <c r="B212" t="s">
-        <v>464</v>
-      </c>
       <c r="C212" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>174</v>
@@ -7955,25 +7955,25 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B213" t="s">
         <v>429</v>
       </c>
-      <c r="B213" t="s">
-        <v>430</v>
-      </c>
       <c r="C213" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -7984,16 +7984,16 @@
         <v>95</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>73</v>
@@ -8007,16 +8007,16 @@
         <v>209</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>199</v>
@@ -8030,16 +8030,16 @@
         <v>35</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>27</v>
@@ -8050,19 +8050,19 @@
         <v>106</v>
       </c>
       <c r="B217" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>73</v>
@@ -8073,19 +8073,19 @@
         <v>115</v>
       </c>
       <c r="B218" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>109</v>
@@ -8093,22 +8093,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B219" t="s">
         <v>367</v>
       </c>
-      <c r="B219" t="s">
-        <v>368</v>
-      </c>
       <c r="C219" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>29</v>
@@ -8116,22 +8116,22 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B220" t="s">
         <v>327</v>
       </c>
-      <c r="B220" t="s">
-        <v>328</v>
-      </c>
       <c r="C220" s="22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>218</v>
@@ -8145,16 +8145,16 @@
         <v>165</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>148</v>
@@ -8162,22 +8162,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B222" t="s">
         <v>533</v>
       </c>
-      <c r="B222" t="s">
-        <v>534</v>
-      </c>
       <c r="C222" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>218</v>
@@ -8191,16 +8191,16 @@
         <v>192</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>188</v>
@@ -8214,16 +8214,16 @@
         <v>254</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>238</v>
@@ -8237,16 +8237,16 @@
         <v>233</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>223</v>
@@ -8260,16 +8260,16 @@
         <v>97</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>73</v>
@@ -8280,19 +8280,19 @@
         <v>175</v>
       </c>
       <c r="B227" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>178</v>
@@ -8306,16 +8306,16 @@
         <v>99</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>73</v>
@@ -8329,16 +8329,16 @@
         <v>260</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>238</v>
@@ -8352,16 +8352,16 @@
         <v>71</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>39</v>
@@ -8369,48 +8369,48 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B231" t="s">
         <v>478</v>
       </c>
-      <c r="B231" t="s">
-        <v>479</v>
-      </c>
       <c r="C231" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B232" t="s">
         <v>480</v>
       </c>
-      <c r="B232" t="s">
-        <v>481</v>
-      </c>
       <c r="C232" s="22" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -8421,16 +8421,16 @@
         <v>173</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>174</v>
@@ -8444,16 +8444,16 @@
         <v>117</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>109</v>
@@ -8467,16 +8467,16 @@
         <v>194</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>188</v>
@@ -8484,22 +8484,22 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B236" t="s">
         <v>369</v>
       </c>
-      <c r="B236" t="s">
-        <v>370</v>
-      </c>
       <c r="C236" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>218</v>
@@ -8507,25 +8507,25 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B237" t="s">
         <v>482</v>
       </c>
-      <c r="B237" t="s">
-        <v>483</v>
-      </c>
       <c r="C237" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -8536,16 +8536,16 @@
         <v>24</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>8</v>
@@ -8553,22 +8553,22 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B239" t="s">
         <v>341</v>
       </c>
-      <c r="B239" t="s">
-        <v>342</v>
-      </c>
       <c r="C239" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>29</v>
@@ -8576,22 +8576,22 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B240" t="s">
         <v>343</v>
       </c>
-      <c r="B240" t="s">
-        <v>344</v>
-      </c>
       <c r="C240" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>218</v>
@@ -8605,16 +8605,16 @@
         <v>101</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>73</v>
@@ -8628,16 +8628,16 @@
         <v>154</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>148</v>
@@ -8651,16 +8651,16 @@
         <v>196</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>188</v>
@@ -8668,22 +8668,22 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B244" t="s">
         <v>399</v>
       </c>
-      <c r="B244" t="s">
-        <v>400</v>
-      </c>
       <c r="C244" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>264</v>
@@ -8697,16 +8697,16 @@
         <v>171</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>148</v>
@@ -8720,16 +8720,16 @@
         <v>256</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D246" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F246" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>238</v>
@@ -8737,25 +8737,25 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B247" t="s">
         <v>484</v>
       </c>
-      <c r="B247" t="s">
-        <v>485</v>
-      </c>
       <c r="C247" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -8766,16 +8766,16 @@
         <v>169</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F248" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>148</v>
@@ -8789,16 +8789,16 @@
         <v>235</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>223</v>
@@ -8806,22 +8806,22 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B250" t="s">
         <v>391</v>
       </c>
-      <c r="B250" t="s">
-        <v>392</v>
-      </c>
       <c r="C250" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>29</v>
@@ -8835,16 +8835,16 @@
         <v>103</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>73</v>
@@ -8858,16 +8858,16 @@
         <v>105</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E252" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>73</v>
@@ -8875,30 +8875,30 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B253" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C253" s="22">
         <v>998</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F253" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B254" t="s">
         <v>280</v>
@@ -8907,13 +8907,13 @@
         <v>999</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>281</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>281</v>
